--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274934.2290519514</v>
+        <v>336715.2273355326</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484453</v>
+        <v>492028.9342484435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8163899.97917461</v>
+        <v>8163899.979174611</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.3178942517236</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,13 +668,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>220.1243865792158</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>109.1914580864784</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>70.87834564427779</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>238.7769899932202</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -908,13 +908,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>346.8266653030219</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>66.91231383755843</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>58.66188293263053</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1114,13 +1114,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>241.9819654353643</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>30.96465002000427</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>103.3846130109063</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>379.7050409934888</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9399060518623</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.8469234786641</v>
+        <v>33.08339867820423</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>140.434281961595</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>161.4258646586683</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>136.1921297287207</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>18.22772027659312</v>
+        <v>18.22772027659647</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>186.7535668023725</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.05677735225799</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>34.71811217257874</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2722,10 +2722,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513587</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022899</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2959,7 +2959,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>35.34780583513542</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3247,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>242.970344258968</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3320,7 +3320,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561542</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3329,7 +3329,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864833</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>136.0564930767003</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800047</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3667,19 +3667,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3718,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>240.0140372138972</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>65.0740537160363</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3980,7 +3980,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772987</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4135,10 +4135,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888118</v>
       </c>
       <c r="D46" t="n">
-        <v>24.62703520776662</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1265.851063100791</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>827.7085902842148</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>795.8392094990634</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>766.1048686977626</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>656.8099308587472</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1739.711376797683</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797683</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756278</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.645126566211</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1892.422823883228</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1529.805873817054</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>1307.458008585523</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449918</v>
+        <v>1292.355949205238</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446452</v>
+        <v>1288.110229545295</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397423</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940199</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.8231175458835</v>
+        <v>701.0657916214911</v>
       </c>
       <c r="C4" t="n">
-        <v>486.8231175458835</v>
+        <v>701.0657916214911</v>
       </c>
       <c r="D4" t="n">
-        <v>320.9451247474061</v>
+        <v>701.0657916214911</v>
       </c>
       <c r="E4" t="n">
-        <v>320.9451247474061</v>
+        <v>531.3077878722283</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2380707091623</v>
+        <v>354.6007338339845</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>189.0094588598122</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>828.6553060539733</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1653.597487995201</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214707</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2203.11074898313</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>1924.677748236236</v>
       </c>
       <c r="V4" t="n">
-        <v>1151.45316161735</v>
+        <v>1637.722240106666</v>
       </c>
       <c r="W4" t="n">
-        <v>1151.45316161735</v>
+        <v>1365.695835692958</v>
       </c>
       <c r="X4" t="n">
-        <v>906.0614069507624</v>
+        <v>1120.30408102637</v>
       </c>
       <c r="Y4" t="n">
-        <v>678.6417362648706</v>
+        <v>892.8844103404783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>907.8468535075729</v>
+        <v>978.7890572316417</v>
       </c>
       <c r="C5" t="n">
-        <v>873.7447847314002</v>
+        <v>944.6869884554691</v>
       </c>
       <c r="D5" t="n">
-        <v>841.8754039462488</v>
+        <v>912.8176076703177</v>
       </c>
       <c r="E5" t="n">
-        <v>812.141063144948</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>384.2736335541558</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1354.309253581271</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1354.309253581271</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>949.4537989923044</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X5" t="n">
-        <v>934.3517396120192</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y5" t="n">
-        <v>930.1060199520766</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>672.6790347687931</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C7" t="n">
-        <v>605.0908389732796</v>
+        <v>760.7341398538248</v>
       </c>
       <c r="D7" t="n">
-        <v>439.2128461748023</v>
+        <v>594.8561470553475</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>930.0072868842942</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>864.4976534877803</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>864.4976534877803</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>864.4976534877803</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.4976534877803</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1576.107549765387</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>1331.681322052897</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.811941267746</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>866.0371964260412</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>438.169766835249</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851284</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>304.284604275296</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743924</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873489</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172585</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798681</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1618.529545798681</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1618.529545798681</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1617.714495250118</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X8" t="n">
-        <v>1602.612435869833</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1598.36671620989</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851284</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851284</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851284</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851284</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851284</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>217.6808149456925</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447889</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>656.0608780189225</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>483.4991665021474</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>483.4991665021474</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>379.070264470929</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>202.3632104326852</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851284</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851284</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943383</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>593.7783744985596</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1048.831075797656</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1491.0898789553</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.0898789553</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925642</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1592.717326504097</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1592.717326504097</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1592.717326504097</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1320.690922090389</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1075.299167423801</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.8794967379097</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2472.724095295528</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2034.581622478951</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1598.671837653396</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111516</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503957</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940404</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T11" t="n">
-        <v>4753.146960239595</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U11" t="n">
-        <v>4493.924657556611</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V11" t="n">
-        <v>4131.307707490438</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W11" t="n">
-        <v>3726.452252901471</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X11" t="n">
-        <v>3307.309789480782</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2899.023665780436</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.77217639691919</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111516</v>
+        <v>421.3305013631315</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
         <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,7 +5221,7 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
         <v>2695.15641754123</v>
@@ -5242,7 +5242,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,67 +5252,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C14" t="n">
         <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146356</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L14" t="n">
-        <v>1171.795942933974</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M14" t="n">
-        <v>1186.925458503957</v>
+        <v>1186.92545850396</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940404</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S14" t="n">
-        <v>4764.226184077309</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.158956950348</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950348</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884174</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W14" t="n">
         <v>3776.686552295208</v>
@@ -5321,7 +5321,7 @@
         <v>3357.544088874519</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111516</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580465</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111516</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2390.883586525066</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062125</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E17" t="n">
         <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M17" t="n">
-        <v>1186.925458503958</v>
+        <v>1186.92545850396</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5659,19 +5659,19 @@
         <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5701,16 +5701,16 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1883.88846224322</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1611.862057829512</v>
       </c>
       <c r="X19" t="n">
         <v>1366.470303162925</v>
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168566</v>
+        <v>2252.65686816857</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351989</v>
+        <v>1814.514395351993</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526434</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847287</v>
+        <v>944.8298656847323</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939366</v>
+        <v>516.9624360939401</v>
       </c>
       <c r="G20" t="n">
-        <v>115.5646047172005</v>
+        <v>115.564604717204</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397516</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M20" t="n">
         <v>1253.783811891666</v>
@@ -5765,37 +5765,37 @@
         <v>2379.514795328113</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.83610851071</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344106</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302701</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112637</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429654</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363476</v>
+        <v>3911.24048036348</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.38502577451</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353821</v>
+        <v>3087.242562353824</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653473</v>
+        <v>2678.956438653478</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="N21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="O21" t="n">
         <v>282.3408549543107</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580463</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935312</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119685</v>
+        <v>2446.098318867741</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.84397037279</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>1880.709809991277</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1363.291650910981</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477033</v>
+        <v>1135.871980225089</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3800.474012941002</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937638</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769887</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D28" t="n">
-        <v>451.8971520785114</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292487</v>
+        <v>303.5569696238771</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910049</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798643</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.155475112751</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6537,22 +6537,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O30" t="n">
         <v>287.8657185439749</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731394</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238766</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
         <v>267.852115244952</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L32" t="n">
         <v>306.120802776629</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130894</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.801834709349</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1481.568714718365</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1236.176960051778</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1008.757289365886</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
         <v>793.2056155771595</v>
@@ -6941,46 +6941,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
         <v>287.8657185439749</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7120,10 +7120,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
         <v>2176.368833962455</v>
@@ -7154,13 +7154,13 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004232</v>
@@ -7178,25 +7178,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>834.8539430951545</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>662.2922315783794</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>496.4142387799021</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,7 +7333,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1771.510391580329</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1499.483987166621</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1254.092232500033</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1026.672561814142</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7436,22 +7436,22 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136696</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1077.292364523334</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>904.7306530065589</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>738.8526602080816</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755404</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2013.948813008509</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1741.922408594801</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1496.530653928213</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1269.110983242321</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
         <v>2090.757574835212</v>
@@ -7643,55 +7643,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.1208027766308</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987182</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7716,28 +7716,28 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O45" t="n">
         <v>287.8657185439749</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883917</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C46" t="n">
-        <v>639.1929661716166</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
         <v>614.3171730324584</v>
@@ -7795,19 +7795,19 @@
         <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7840,13 +7840,13 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
         <v>1003.573296407379</v>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>479.9987875054302</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099326</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>138.4891182087781</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>205.1467494379689</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866497</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062421</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,22 +8614,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>197.6447467719407</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790749</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>103.329001379142</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949897315</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>15.28233895957806</v>
+        <v>1101.201496790753</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790751</v>
+        <v>1101.201496790753</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9413,7 +9413,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>922.5467809925221</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>103.329001379142</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,13 +9890,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>773.8072875145294</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463143</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>49.73195639979895</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>268.0111327346201</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.96843159933726</v>
+        <v>49.73195639979713</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>102.9863699957343</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>268.0111327346194</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>268.0111327346224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>268.0111327346228</v>
+        <v>268.0111327346194</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3.14686572942469</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729423844</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>26.33579611060341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>44.07191583437663</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>102.9863699957338</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D46" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>682457.262261763</v>
+        <v>682457.2622617633</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>682457.2622617631</v>
+        <v>682457.2622617633</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>682457.262261763</v>
+        <v>682457.2622617634</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>682457.262261763</v>
+        <v>682457.2622617634</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>711257.7385854258</v>
+        <v>711257.7385854257</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>711257.7385854257</v>
+        <v>711257.7385854254</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214458.9279561634</v>
+        <v>214458.9279561635</v>
       </c>
       <c r="C2" t="n">
         <v>214458.9279561634</v>
@@ -26326,22 +26326,22 @@
         <v>202209.5591886706</v>
       </c>
       <c r="G2" t="n">
-        <v>202209.5591886705</v>
+        <v>202209.5591886707</v>
       </c>
       <c r="H2" t="n">
-        <v>202209.5591886705</v>
+        <v>202209.5591886706</v>
       </c>
       <c r="I2" t="n">
         <v>210743.033654941</v>
       </c>
       <c r="J2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="K2" t="n">
         <v>210743.033654941</v>
       </c>
       <c r="L2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="M2" t="n">
         <v>210743.033654941</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039027</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390683</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101145</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>18364.7156328394</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856131</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784528</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.309604032037948e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.383971508</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897628</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="G4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="H4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211688144</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26451,13 +26451,13 @@
         <v>806.3323907825613</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826432</v>
       </c>
       <c r="O4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>806.3323907826025</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-156325.2541105287</v>
+        <v>-187990.8487773891</v>
       </c>
       <c r="C6" t="n">
-        <v>-14133.95345081874</v>
+        <v>9401.452802248255</v>
       </c>
       <c r="D6" t="n">
-        <v>-19174.20485407216</v>
+        <v>26741.99717615506</v>
       </c>
       <c r="E6" t="n">
-        <v>-95882.75896217264</v>
+        <v>-33895.09897505703</v>
       </c>
       <c r="F6" t="n">
-        <v>127916.5347898543</v>
+        <v>127839.9762350575</v>
       </c>
       <c r="G6" t="n">
-        <v>127916.5347898543</v>
+        <v>127839.9762350575</v>
       </c>
       <c r="H6" t="n">
-        <v>127916.5347898542</v>
+        <v>127839.9762350574</v>
       </c>
       <c r="I6" t="n">
-        <v>113853.7470255263</v>
+        <v>113830.5226861438</v>
       </c>
       <c r="J6" t="n">
-        <v>21203.99731337563</v>
+        <v>-28412.59116662993</v>
       </c>
       <c r="K6" t="n">
-        <v>132218.4626583658</v>
+        <v>118381.2297511379</v>
       </c>
       <c r="L6" t="n">
-        <v>123270.8515698556</v>
+        <v>132195.2383189832</v>
       </c>
       <c r="M6" t="n">
-        <v>-54572.52395210147</v>
+        <v>-2794.706294020177</v>
       </c>
       <c r="N6" t="n">
-        <v>132218.4626583658</v>
+        <v>132195.2383189831</v>
       </c>
       <c r="O6" t="n">
-        <v>132218.4626583659</v>
+        <v>132195.2383189833</v>
       </c>
       <c r="P6" t="n">
-        <v>132218.4626583658</v>
+        <v>132195.2383189831</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
         <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26829,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,13 +27388,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>180.6825134638612</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>54.74390413795219</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>172.5423063130515</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>183.2595847868384</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50.55718775994683</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9237805640489</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>109.3985407791396</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>191.7790826530466</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27904,7 +27904,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>369.8422500230727</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>64.67581070086385</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.750640694000166e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>479.9987875054302</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099326</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>138.4891182087781</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>205.1467494379689</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35179,19 +35179,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866497</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062421</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>197.6447467719407</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790749</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>103.329001379142</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949897315</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,10 +35650,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>15.28233895957806</v>
+        <v>1101.201496790753</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790751</v>
+        <v>1101.201496790753</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36133,7 +36133,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>922.5467809925221</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697549</v>
+        <v>103.329001379142</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,13 +36610,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>773.8072875145294</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463143</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
